--- a/data/VariableCuantitativa.xlsx
+++ b/data/VariableCuantitativa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP-pc\Documents\6toCiclo\Estadistica\ProyectoFinal\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB8EDD4-8129-4082-AFC3-C60F5C0DCE27}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA933DF-D31D-4EBD-8B8F-56030BC5ECA2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3060" yWindow="5295" windowWidth="16710" windowHeight="10905" xr2:uid="{71DB281C-C736-4A99-89A8-6FFB9F7DB994}"/>
   </bookViews>
@@ -412,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5250A48-4A83-42A2-A6F2-3B4E4A70A143}">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -495,12 +495,6 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>SUM(B2:B9)</f>
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
